--- a/biology/Médecine/Articulation_atlanto-occipitale/Articulation_atlanto-occipitale.xlsx
+++ b/biology/Médecine/Articulation_atlanto-occipitale/Articulation_atlanto-occipitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation atlanto-occipitale (ou articulation occipito-atloïdienne) est l'articulation entre la tête et le cou.
 </t>
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Surfaces articulaires
-C'est une double articulation synoviale mettant en relation les condyles de l'atlas et de l'os occipital.
+          <t>Surfaces articulaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une double articulation synoviale mettant en relation les condyles de l'atlas et de l'os occipital.
 Les surfaces concaves des condyles se situent sur l'atlas : les cavités glénoïdales ou glénoïdes situées sur la face supérieure des masses latérales de cet os.
 Les surfaces convexes se situent sur la face inférieure la partie latérale de l'os occipital de chaque côté du foramen magnum.
-Ligaments
-L'articulation possède deux capsules articulaires fines et lâches renforcées en dehors et en arrière par les ligaments atlanto-occipitaux latéraux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Articulation_atlanto-occipitale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_atlanto-occipitale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ligaments</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation possède deux capsules articulaires fines et lâches renforcées en dehors et en arrière par les ligaments atlanto-occipitaux latéraux.
 Deux membranes unissent les deux os :
 la membrane atlanto-occipitale postérieure entre l'arc postérieur de l'atlas et le bord postérieur du foramen magnum ;
 la membrane atlanto-occipitale antérieure entre l'arc antérieur de l'atlas et le bord antérieur du foramen magnum renforcée par le ligament atlanto-occipital antérieur.
@@ -527,31 +579,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Articulation_atlanto-occipitale</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_atlanto-occipitale</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Mobilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mouvements autorisés dans cette articulation sont :
 la flexion et l'extension autour de l'axe médio-latéral, qui donnent lieu au hochement de tête vers l'avant et vers l'arrière.
@@ -572,36 +626,41 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Articulation_atlanto-occipitale</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_atlanto-occipitale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luxation
-L'articulation atlanto-occipitale peut être luxée, en particulier lors d'accidents violents tels que les collisions routières[1]. Cela peut être diagnostiqué à l'aide de la tomodensitométrie ou l'imagerie par résonance magnétique de la tête et du cou[1].
-La chirurgie peut être utilisée pour réparer l'articulation et toutes fractures osseuses associée[1].
-Les mouvements du cou peuvent être réduits longtemps après ce type de traumatisme[1] et peuvent également entraîner une hyperlaxité en particulier si la traction a été utilisée lors du traitement[2].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Luxation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation atlanto-occipitale peut être luxée, en particulier lors d'accidents violents tels que les collisions routières. Cela peut être diagnostiqué à l'aide de la tomodensitométrie ou l'imagerie par résonance magnétique de la tête et du cou.
+La chirurgie peut être utilisée pour réparer l'articulation et toutes fractures osseuses associée.
+Les mouvements du cou peuvent être réduits longtemps après ce type de traumatisme et peuvent également entraîner une hyperlaxité en particulier si la traction a été utilisée lors du traitement.
 </t>
         </is>
       </c>
